--- a/test_data/收支.xlsx
+++ b/test_data/收支.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9390"/>
+    <workbookView windowWidth="28080" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="记收入测试数据" sheetId="1" r:id="rId1"/>
     <sheet name="记支出测试数据" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="记账户互转测试数据" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>记账日期（day）</t>
   </si>
@@ -24,7 +24,7 @@
     <t>交易账户</t>
   </si>
   <si>
-    <t>对方其他</t>
+    <t>对方信息</t>
   </si>
   <si>
     <t>类别</t>
@@ -115,6 +115,258 @@
   </si>
   <si>
     <t>现金-内部代表-应收账款-应收账款 141</t>
+  </si>
+  <si>
+    <t>银行费用</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>现金-内部代表-行政支出-银行费用 211</t>
+  </si>
+  <si>
+    <t>临时借出资金</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>现金-内部代表-资金往来-临时借出资金 221</t>
+  </si>
+  <si>
+    <t>归还临时借入</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>现金-内部代表-资金往来-归还临时借入 222</t>
+  </si>
+  <si>
+    <t>对外投资款</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>现金-内部代表-投资&amp;融资-对外投资款 231</t>
+  </si>
+  <si>
+    <t>归还银行贷款</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>现金-内部代表-投资&amp;融资-归还银行贷款 232</t>
+  </si>
+  <si>
+    <t>贷款利息</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>现金-内部代表-投资&amp;融资-贷款利息 233</t>
+  </si>
+  <si>
+    <t>应付工资奖金</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>现金-内部代表-应付职工薪酬-应付工资奖金 241</t>
+  </si>
+  <si>
+    <t>应付社保费</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>现金-内部代表-应付职工薪酬-应付社保费 242</t>
+  </si>
+  <si>
+    <t>应付公积金</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>现金-内部代表-应付职工薪酬-应付公积金 243</t>
+  </si>
+  <si>
+    <t>应付劳务费</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>现金-内部代表-应付职工薪酬-应付劳务费 244</t>
+  </si>
+  <si>
+    <t>应交增值税</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>现金-内部代表-应交税费-应交增值税 251</t>
+  </si>
+  <si>
+    <t>应交城建税</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>现金-内部代表-应交税费-应交城建税 252</t>
+  </si>
+  <si>
+    <t>应交教育费附加</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>现金-内部代表-应交税费-应交教育费附加 253</t>
+  </si>
+  <si>
+    <t>应交地方教育附加</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>现金-内部代表-应交税费-应交地方教育附加 254</t>
+  </si>
+  <si>
+    <t>应交个税</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>现金-内部代表-应交税费-应交个税 255</t>
+  </si>
+  <si>
+    <t>应交印花税</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>现金-内部代表-应交税费-应交印花税 256</t>
+  </si>
+  <si>
+    <t>应交所得税</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>现金-内部代表-应交税费-应交所得税 257</t>
+  </si>
+  <si>
+    <t>应付账款</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>现金-内部代表-应付账款-应付账款 261</t>
+  </si>
+  <si>
+    <t>记账日期(day)</t>
+  </si>
+  <si>
+    <t>转出账户</t>
+  </si>
+  <si>
+    <t>转入账户</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>招商银行-现金 711</t>
+  </si>
+  <si>
+    <t>羊羊羊微信</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>招商银行-羊羊羊微信 712</t>
+  </si>
+  <si>
+    <t>羊羊羊支付宝</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>招商银行-羊羊羊支付宝 713</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>现金-招商银行 714</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>现金-羊羊羊微信 715</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>现金-羊羊羊支付宝 716</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>羊羊羊微信-现金 717</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
+    <t>羊羊羊微信-招商银行 718</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>羊羊羊微信-羊羊羊支付宝 719</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>羊羊羊支付宝-现金 720</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>羊羊羊支付宝-招商银行 721</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>羊羊羊支付宝-羊羊羊微信 722</t>
   </si>
 </sst>
 </file>
@@ -122,12 +374,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,22 +396,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,7 +426,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +510,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,99 +539,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -304,25 +549,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,157 +723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,45 +740,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,11 +767,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,13 +826,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,168 +845,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,41 +1372,41 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1161,7 +1418,7 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -1169,7 +1426,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1181,7 +1438,7 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
@@ -1189,7 +1446,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1201,7 +1458,7 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
@@ -1209,7 +1466,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -1221,7 +1478,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
@@ -1229,7 +1486,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -1241,7 +1498,7 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
@@ -1249,7 +1506,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1261,7 +1518,7 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
@@ -1269,7 +1526,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1281,7 +1538,7 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
@@ -1289,7 +1546,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1301,7 +1558,7 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
@@ -1309,6 +1566,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21 D22:D32">
+      <formula1>"利息收入,回收借出资金(收入),收到临时借入款(收入),收回投资利息(收入),收回投资本金(收入),收到投资款,银行贷款(收入),应收账款"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1318,14 +1580,408 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="44.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D51">
+      <formula1>"银行费用,临时借出资金,归还临时借入,对外投资款,归还银行贷款,贷款利息,应付工资奖金,应付社保费,应付公积金,应付劳务费,应交增值税,应交城建税,应交教育费附加,应交地方教育附加,应交个税,应交印花税,应交所得税,应付账款"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1335,14 +1991,243 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/test_data/收支.xlsx
+++ b/test_data/收支.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070"/>
+    <workbookView windowWidth="28080" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="记收入测试数据" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>现金</t>
   </si>
   <si>
-    <t>内部代表</t>
+    <t>(个)内部代表</t>
   </si>
   <si>
     <t>利息收入</t>
@@ -374,10 +374,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -396,47 +396,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,22 +412,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -478,9 +436,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,8 +502,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,35 +527,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -549,31 +549,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,151 +723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,6 +740,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -767,45 +815,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -825,21 +840,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -848,10 +848,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,141 +860,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1371,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1381,32 +1378,32 @@
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1418,7 +1415,7 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -1426,7 +1423,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1438,7 +1435,7 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
@@ -1446,7 +1443,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1458,7 +1455,7 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
@@ -1466,7 +1463,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -1478,7 +1475,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
@@ -1486,7 +1483,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -1498,7 +1495,7 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
@@ -1506,7 +1503,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1518,7 +1515,7 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
@@ -1526,7 +1523,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1538,7 +1535,7 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
@@ -1546,7 +1543,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1558,7 +1555,7 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
@@ -1582,8 +1579,8 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1596,28 +1593,28 @@
     <col min="6" max="6" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1629,7 +1626,7 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F2" t="s">
@@ -1637,7 +1634,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1649,15 +1646,15 @@
       <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1669,7 +1666,7 @@
       <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F4" t="s">
@@ -1677,7 +1674,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -1689,7 +1686,7 @@
       <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
@@ -1697,7 +1694,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -1709,7 +1706,7 @@
       <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>46</v>
       </c>
       <c r="F6" t="s">
@@ -1717,7 +1714,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1729,7 +1726,7 @@
       <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>49</v>
       </c>
       <c r="F7" t="s">
@@ -1737,7 +1734,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1749,7 +1746,7 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F8" t="s">
@@ -1757,7 +1754,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1769,7 +1766,7 @@
       <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F9" t="s">
@@ -1777,7 +1774,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -1789,7 +1786,7 @@
       <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F10" t="s">
@@ -1797,7 +1794,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -1809,7 +1806,7 @@
       <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F11" t="s">
@@ -1817,7 +1814,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1829,7 +1826,7 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F12" t="s">
@@ -1837,7 +1834,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
@@ -1849,7 +1846,7 @@
       <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F13" t="s">
@@ -1857,7 +1854,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
@@ -1869,7 +1866,7 @@
       <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>70</v>
       </c>
       <c r="F14" t="s">
@@ -1877,7 +1874,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
@@ -1889,7 +1886,7 @@
       <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F15" t="s">
@@ -1897,7 +1894,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
@@ -1909,7 +1906,7 @@
       <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>76</v>
       </c>
       <c r="F16" t="s">
@@ -1917,7 +1914,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
@@ -1929,7 +1926,7 @@
       <c r="D17" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F17" t="s">
@@ -1937,7 +1934,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
@@ -1949,7 +1946,7 @@
       <c r="D18" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>82</v>
       </c>
       <c r="F18" t="s">
@@ -1957,7 +1954,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
@@ -1969,7 +1966,7 @@
       <c r="D19" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F19" t="s">
@@ -2007,24 +2004,24 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -2033,7 +2030,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E2" t="s">
@@ -2041,7 +2038,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -2050,7 +2047,7 @@
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E3" t="s">
@@ -2058,7 +2055,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -2067,7 +2064,7 @@
       <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>97</v>
       </c>
       <c r="E4" t="s">
@@ -2075,7 +2072,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -2084,7 +2081,7 @@
       <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E5" t="s">
@@ -2092,7 +2089,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -2101,7 +2098,7 @@
       <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E6" t="s">
@@ -2109,7 +2106,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2118,7 +2115,7 @@
       <c r="C7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>103</v>
       </c>
       <c r="E7" t="s">
@@ -2126,7 +2123,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -2135,7 +2132,7 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E8" t="s">
@@ -2143,7 +2140,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -2152,7 +2149,7 @@
       <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E9" t="s">
@@ -2160,7 +2157,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -2169,7 +2166,7 @@
       <c r="C10" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E10" t="s">
@@ -2177,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -2186,7 +2183,7 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E11" t="s">
@@ -2194,7 +2191,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -2203,7 +2200,7 @@
       <c r="C12" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E12" t="s">
@@ -2211,7 +2208,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
@@ -2220,7 +2217,7 @@
       <c r="C13" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>115</v>
       </c>
       <c r="E13" t="s">

--- a/test_data/收支.xlsx
+++ b/test_data/收支.xlsx
@@ -10,6 +10,8 @@
     <sheet name="记收入测试数据" sheetId="1" r:id="rId1"/>
     <sheet name="记支出测试数据" sheetId="2" r:id="rId2"/>
     <sheet name="记账户互转测试数据" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -376,8 +378,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -396,6 +398,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -404,9 +428,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,7 +466,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -443,50 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -495,7 +496,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -512,29 +521,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,13 +551,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,169 +725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,11 +745,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,52 +799,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,6 +822,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -848,10 +850,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,133 +862,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,9 +1012,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1369,7 +1368,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1515,7 +1514,7 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
@@ -1564,7 +1563,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21 D22:D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D4:D9 D10:D21 D22:D32">
       <formula1>"利息收入,回收借出资金(收入),收到临时借入款(收入),收回投资利息(收入),收回投资本金(收入),收到投资款,银行贷款(收入),应收账款"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1580,7 +1579,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A4" sqref="A4:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1626,7 +1625,7 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F2" t="s">
@@ -1646,7 +1645,7 @@
       <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1666,7 +1665,7 @@
       <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4" t="s">
@@ -1686,7 +1685,7 @@
       <c r="D5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" t="s">
         <v>43</v>
       </c>
       <c r="F5" t="s">
@@ -1706,7 +1705,7 @@
       <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" t="s">
         <v>46</v>
       </c>
       <c r="F6" t="s">
@@ -1726,7 +1725,7 @@
       <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
       <c r="F7" t="s">
@@ -1746,7 +1745,7 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" t="s">
         <v>52</v>
       </c>
       <c r="F8" t="s">
@@ -1766,7 +1765,7 @@
       <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" t="s">
         <v>55</v>
       </c>
       <c r="F9" t="s">
@@ -1786,7 +1785,7 @@
       <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
       <c r="F10" t="s">
@@ -1806,7 +1805,7 @@
       <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" t="s">
         <v>61</v>
       </c>
       <c r="F11" t="s">
@@ -1826,7 +1825,7 @@
       <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
       <c r="F12" t="s">
@@ -1846,7 +1845,7 @@
       <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" t="s">
         <v>67</v>
       </c>
       <c r="F13" t="s">
@@ -1866,7 +1865,7 @@
       <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" t="s">
         <v>70</v>
       </c>
       <c r="F14" t="s">
@@ -1886,7 +1885,7 @@
       <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" t="s">
         <v>73</v>
       </c>
       <c r="F15" t="s">
@@ -1906,7 +1905,7 @@
       <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" t="s">
         <v>76</v>
       </c>
       <c r="F16" t="s">
@@ -1926,7 +1925,7 @@
       <c r="D17" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" t="s">
         <v>79</v>
       </c>
       <c r="F17" t="s">
@@ -1946,7 +1945,7 @@
       <c r="D18" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" t="s">
         <v>82</v>
       </c>
       <c r="F18" t="s">
@@ -1966,7 +1965,7 @@
       <c r="D19" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" t="s">
         <v>85</v>
       </c>
       <c r="F19" t="s">
@@ -1975,7 +1974,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 D4:D19 D21:D51">
       <formula1>"银行费用,临时借出资金,归还临时借入,对外投资款,归还银行贷款,贷款利息,应付工资奖金,应付社保费,应付公积金,应付劳务费,应交增值税,应交城建税,应交教育费附加,应交地方教育附加,应交个税,应交印花税,应交所得税,应付账款"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2030,7 +2029,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="E2" t="s">
@@ -2047,7 +2046,7 @@
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E3" t="s">
@@ -2064,7 +2063,7 @@
       <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>97</v>
       </c>
       <c r="E4" t="s">
@@ -2081,7 +2080,7 @@
       <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E5" t="s">
@@ -2098,7 +2097,7 @@
       <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>101</v>
       </c>
       <c r="E6" t="s">
@@ -2115,7 +2114,7 @@
       <c r="C7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E7" t="s">
@@ -2132,7 +2131,7 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>105</v>
       </c>
       <c r="E8" t="s">
@@ -2149,7 +2148,7 @@
       <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E9" t="s">
@@ -2166,7 +2165,7 @@
       <c r="C10" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E10" t="s">
@@ -2183,7 +2182,7 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>111</v>
       </c>
       <c r="E11" t="s">
@@ -2200,7 +2199,7 @@
       <c r="C12" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E12" t="s">
@@ -2217,7 +2216,7 @@
       <c r="C13" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>115</v>
       </c>
       <c r="E13" t="s">
@@ -2229,4 +2228,41 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
+      <formula1>"银行费用,临时借出资金,归还临时借入,对外投资款,归还银行贷款,贷款利息,应付工资奖金,应付社保费,应付公积金,应付劳务费,应交增值税,应交城建税,应交教育费附加,应交地方教育附加,应交个税,应交印花税,应交所得税,应付账款"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/test_data/收支.xlsx
+++ b/test_data/收支.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="9390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="记收入测试数据" sheetId="1" r:id="rId1"/>
     <sheet name="记支出测试数据" sheetId="2" r:id="rId2"/>
     <sheet name="记账户互转测试数据" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="收入记录凭证校验数据" sheetId="4" r:id="rId4"/>
+    <sheet name="支出记录凭证校验数据" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>记账日期（day）</t>
   </si>
@@ -369,6 +369,111 @@
   </si>
   <si>
     <t>羊羊羊支付宝-羊羊羊微信 722</t>
+  </si>
+  <si>
+    <t>凭证编号</t>
+  </si>
+  <si>
+    <t>科目编码</t>
+  </si>
+  <si>
+    <t>科目名称</t>
+  </si>
+  <si>
+    <t>借贷方向</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>RMB</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>560301</t>
+  </si>
+  <si>
+    <t>利息费用</t>
+  </si>
+  <si>
+    <t>-111</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>12210101</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>22410101</t>
+  </si>
+  <si>
+    <t>临时借入款</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>511101</t>
+  </si>
+  <si>
+    <t>投资收益</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>151101</t>
+  </si>
+  <si>
+    <t>投资名称</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>300101</t>
+  </si>
+  <si>
+    <t>股东名称</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>200101</t>
+  </si>
+  <si>
+    <t>银行贷款</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>112201</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>560302</t>
+  </si>
+  <si>
+    <t>手续费用</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -376,10 +481,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -399,7 +504,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +512,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,85 +564,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,10 +579,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,6 +600,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -551,7 +656,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,19 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,13 +806,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,43 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,85 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,17 +850,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,39 +890,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,18 +913,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,10 +955,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -862,138 +967,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1368,7 +1476,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1377,7 +1485,7 @@
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1394,7 +1502,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1402,7 +1510,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1414,7 +1522,7 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -1422,7 +1530,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1434,7 +1542,7 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
@@ -1442,7 +1550,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1454,7 +1562,7 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
@@ -1462,7 +1570,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -1474,7 +1582,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
@@ -1482,7 +1590,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -1494,7 +1602,7 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
@@ -1502,7 +1610,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1514,7 +1622,7 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
@@ -1522,7 +1630,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1534,7 +1642,7 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
@@ -1542,7 +1650,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1554,7 +1662,7 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
@@ -1578,7 +1686,7 @@
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:J19"/>
     </sheetView>
   </sheetViews>
@@ -1592,28 +1700,28 @@
     <col min="6" max="6" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1625,7 +1733,7 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F2" t="s">
@@ -1633,7 +1741,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1645,15 +1753,15 @@
       <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1673,7 +1781,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -1693,7 +1801,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -1713,7 +1821,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1733,7 +1841,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1753,7 +1861,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1773,7 +1881,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -1793,7 +1901,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -1813,7 +1921,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1833,7 +1941,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
@@ -1853,7 +1961,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
@@ -1873,7 +1981,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
@@ -1893,7 +2001,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
@@ -1913,7 +2021,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
@@ -1933,7 +2041,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
@@ -1953,7 +2061,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
@@ -2020,7 +2128,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -2029,7 +2137,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E2" t="s">
@@ -2037,7 +2145,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -2046,7 +2154,7 @@
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>94</v>
       </c>
       <c r="E3" t="s">
@@ -2054,7 +2162,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -2063,7 +2171,7 @@
       <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>97</v>
       </c>
       <c r="E4" t="s">
@@ -2071,7 +2179,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -2080,7 +2188,7 @@
       <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E5" t="s">
@@ -2088,7 +2196,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -2097,7 +2205,7 @@
       <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>101</v>
       </c>
       <c r="E6" t="s">
@@ -2105,7 +2213,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2114,7 +2222,7 @@
       <c r="C7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>103</v>
       </c>
       <c r="E7" t="s">
@@ -2122,7 +2230,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -2131,7 +2239,7 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E8" t="s">
@@ -2139,7 +2247,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -2148,7 +2256,7 @@
       <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E9" t="s">
@@ -2156,7 +2264,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -2165,7 +2273,7 @@
       <c r="C10" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E10" t="s">
@@ -2173,7 +2281,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -2182,7 +2290,7 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E11" t="s">
@@ -2190,7 +2298,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -2199,7 +2307,7 @@
       <c r="C12" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E12" t="s">
@@ -2207,7 +2315,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
@@ -2216,7 +2324,7 @@
       <c r="C13" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>115</v>
       </c>
       <c r="E13" t="s">
@@ -2233,14 +2341,315 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" ht="12" customHeight="1" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4:D17 D18:D40">
+      <formula1>"Debit,Credit"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2249,17 +2658,375 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
-      <formula1>"银行费用,临时借出资金,归还临时借入,对外投资款,归还银行贷款,贷款利息,应付工资奖金,应付社保费,应付公积金,应付劳务费,应交增值税,应交城建税,应交教育费附加,应交地方教育附加,应交个税,应交印花税,应交所得税,应付账款"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4:D21">
+      <formula1>"Debit,Credit"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/test_data/收支.xlsx
+++ b/test_data/收支.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9390" activeTab="4"/>
+    <workbookView windowWidth="28080" windowHeight="14070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="记收入测试数据" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <t>记账日期（day）</t>
   </si>
@@ -474,6 +474,36 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -647,12 +677,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -955,149 +991,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1105,6 +1141,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1123,6 +1162,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,7 +1527,7 @@
     <col min="2" max="2" width="13.875" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="4" customWidth="1"/>
     <col min="6" max="6" width="54.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1502,7 +1544,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1510,7 +1552,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1522,7 +1564,7 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -1530,7 +1572,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1542,7 +1584,7 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
@@ -1550,7 +1592,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1562,7 +1604,7 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
@@ -1570,7 +1612,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -1582,7 +1624,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
@@ -1590,7 +1632,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -1602,7 +1644,7 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
@@ -1610,7 +1652,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1622,7 +1664,7 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
@@ -1630,7 +1672,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1642,7 +1684,7 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
@@ -1650,7 +1692,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1662,7 +1704,7 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F9" t="s">
@@ -1687,7 +1729,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1700,28 +1742,28 @@
     <col min="6" max="6" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1733,7 +1775,7 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F2" t="s">
@@ -1741,7 +1783,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -1753,15 +1795,15 @@
       <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1781,7 +1823,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -1801,7 +1843,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -1821,7 +1863,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1841,7 +1883,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1861,7 +1903,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1881,7 +1923,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -1901,7 +1943,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -1921,7 +1963,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1941,7 +1983,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
@@ -1961,7 +2003,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
@@ -1981,7 +2023,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
@@ -2001,7 +2043,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
@@ -2021,7 +2063,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
@@ -2041,7 +2083,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
@@ -2061,7 +2103,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
@@ -2128,7 +2170,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -2137,7 +2179,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>91</v>
       </c>
       <c r="E2" t="s">
@@ -2145,7 +2187,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -2154,7 +2196,7 @@
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E3" t="s">
@@ -2162,7 +2204,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -2171,7 +2213,7 @@
       <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>97</v>
       </c>
       <c r="E4" t="s">
@@ -2179,7 +2221,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -2188,7 +2230,7 @@
       <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E5" t="s">
@@ -2196,7 +2238,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
@@ -2205,7 +2247,7 @@
       <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E6" t="s">
@@ -2213,7 +2255,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2222,7 +2264,7 @@
       <c r="C7" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E7" t="s">
@@ -2230,7 +2272,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -2239,7 +2281,7 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E8" t="s">
@@ -2247,7 +2289,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -2256,7 +2298,7 @@
       <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E9" t="s">
@@ -2264,7 +2306,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -2273,7 +2315,7 @@
       <c r="C10" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E10" t="s">
@@ -2281,7 +2323,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -2290,7 +2332,7 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>111</v>
       </c>
       <c r="E11" t="s">
@@ -2298,7 +2340,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -2307,7 +2349,7 @@
       <c r="C12" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E12" t="s">
@@ -2315,7 +2357,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
@@ -2324,7 +2366,7 @@
       <c r="C13" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>115</v>
       </c>
       <c r="E13" t="s">
@@ -2341,10 +2383,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2373,10 +2415,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C2" t="s">
@@ -2385,15 +2427,15 @@
       <c r="D2" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C3" t="s">
@@ -2402,15 +2444,15 @@
       <c r="D3" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C4" t="s">
@@ -2419,15 +2461,15 @@
       <c r="D4" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C5" t="s">
@@ -2436,15 +2478,15 @@
       <c r="D5" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C6" t="s">
@@ -2453,15 +2495,15 @@
       <c r="D6" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C7" t="s">
@@ -2470,15 +2512,15 @@
       <c r="D7" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C8" t="s">
@@ -2487,15 +2529,15 @@
       <c r="D8" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C9" t="s">
@@ -2504,15 +2546,15 @@
       <c r="D9" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C10" t="s">
@@ -2521,15 +2563,15 @@
       <c r="D10" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C11" t="s">
@@ -2538,15 +2580,15 @@
       <c r="D11" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C12" t="s">
@@ -2555,15 +2597,15 @@
       <c r="D12" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C13" t="s">
@@ -2572,15 +2614,15 @@
       <c r="D13" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C14" t="s">
@@ -2589,15 +2631,15 @@
       <c r="D14" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C15" t="s">
@@ -2606,15 +2648,15 @@
       <c r="D15" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C16" t="s">
@@ -2623,15 +2665,15 @@
       <c r="D16" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C17" t="s">
@@ -2640,13 +2682,181 @@
       <c r="D17" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:5">
+      <c r="A18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4:D17 D18:D40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4:D17 D18:D21 D22:D40">
       <formula1>"Debit,Credit"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2658,13 +2868,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -2684,348 +2894,76 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>121</v>
+      <c r="A2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
+      <c r="E2" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>124</v>
+      <c r="A3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>121</v>
+      <c r="A4" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>13</v>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>128</v>
+      <c r="A5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
       <formula1>"Debit,Credit"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test_data/收支.xlsx
+++ b/test_data/收支.xlsx
@@ -4,21 +4,39 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" activeTab="3"/>
+    <workbookView windowWidth="28080" windowHeight="14070"/>
   </bookViews>
   <sheets>
-    <sheet name="记收入测试数据" sheetId="1" r:id="rId1"/>
-    <sheet name="记支出测试数据" sheetId="2" r:id="rId2"/>
-    <sheet name="记账户互转测试数据" sheetId="3" r:id="rId3"/>
-    <sheet name="收入记录凭证校验数据" sheetId="4" r:id="rId4"/>
-    <sheet name="支出记录凭证校验数据" sheetId="5" r:id="rId5"/>
+    <sheet name="说明" sheetId="6" r:id="rId1"/>
+    <sheet name="记收入测试数据" sheetId="1" r:id="rId2"/>
+    <sheet name="记支出测试数据" sheetId="2" r:id="rId3"/>
+    <sheet name="记账户互转测试数据" sheetId="3" r:id="rId4"/>
+    <sheet name="收入记录凭证校验数据" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>记录数目</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>支出</t>
+  </si>
+  <si>
+    <t>账户互转</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
   <si>
     <t>记账日期（day）</t>
   </si>
@@ -491,19 +509,55 @@
     <t>15</t>
   </si>
   <si>
+    <t>221101</t>
+  </si>
+  <si>
+    <t>工资奖金</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
+    <t>22410103</t>
+  </si>
+  <si>
+    <t>应付社保</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
+    <t>22410104</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>22210106</t>
+  </si>
+  <si>
+    <t>销项税额</t>
+  </si>
+  <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>222108</t>
+  </si>
+  <si>
+    <t>应交城市维护建设税</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>222113</t>
+  </si>
+  <si>
+    <t>教育费附加</t>
   </si>
 </sst>
 </file>
@@ -533,68 +587,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,10 +604,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -632,14 +627,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,7 +635,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,6 +671,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -676,8 +707,31 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,7 +746,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,85 +914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,79 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,39 +953,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,7 +976,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,6 +1006,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -983,6 +1034,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -991,10 +1051,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,147 +1063,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1161,10 +1221,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1515,10 +1581,73 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="24" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:2">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:2">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <f>SUM(B2:B4)</f>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="记收入测试数据!A1" display="收入"/>
+    <hyperlink ref="A3" location="记支出测试数据!A1" display="支出"/>
+    <hyperlink ref="A4" location="记账户互转测试数据!A1" display="账户互转"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1533,182 +1662,182 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1723,13 +1852,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1744,382 +1873,382 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2134,7 +2263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E13"/>
@@ -2154,223 +2283,223 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>107</v>
+        <v>96</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>111</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
         <v>96</v>
       </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>113</v>
+      <c r="D12" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>115</v>
+        <v>99</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2380,590 +2509,757 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>121</v>
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>129</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>124</v>
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1" spans="1:5">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
+        <v>129</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C6" t="s">
         <v>128</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:5">
+      <c r="A18" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="C28" t="s">
         <v>131</v>
       </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D28" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E28" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
         <v>135</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E29" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="E30" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C36" t="s">
         <v>138</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D36" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E36" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E38" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E40" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:5">
-      <c r="A18" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="E42" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" t="s">
         <v>128</v>
       </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="9" t="s">
-        <v>161</v>
+      <c r="D43" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4:D17 D18:D21 D22:D40">
-      <formula1>"Debit,Credit"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4:D17 D18:D21 D22:D25 D26:D27 D28:D29 D30:D41 D42:D43">
       <formula1>"Debit,Credit"</formula1>
     </dataValidation>
   </dataValidations>
